--- a/downloaded_files/EECS306_Tutorial-35319.xlsx
+++ b/downloaded_files/EECS306_Tutorial-35319.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -42,15 +42,6 @@
     <x:t>Ibrahim Yasser Ibrahim Farhat</x:t>
   </x:si>
   <x:si>
-    <x:t>1220038</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ايه رضا علي محمد سليمان</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Aya Reda Ali Mohamed</x:t>
-  </x:si>
-  <x:si>
     <x:t>1220042</x:t>
   </x:si>
   <x:si>
@@ -156,15 +147,6 @@
     <x:t>lojain khaled ramadan mahmoud</x:t>
   </x:si>
   <x:si>
-    <x:t>1230237</x:t>
-  </x:si>
-  <x:si>
-    <x:t>مالك مدحت محمد أنور محمد نافع</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Malek Medhat Mohamed Anwar Mohamed Nafei</x:t>
-  </x:si>
-  <x:si>
     <x:t>1230302</x:t>
   </x:si>
   <x:si>
@@ -174,33 +156,6 @@
     <x:t>MOHAMED KHAIRY</x:t>
   </x:si>
   <x:si>
-    <x:t>1220195</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمد طارق محمد عبدالخالق</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mohamed Tarek Mohamef Abdelkhalek</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1220275</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمد عمرو ابراهيم المصري</x:t>
-  </x:si>
-  <x:si>
-    <x:t>mohamed amr ebrahim elmasry</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230246</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمد عمرو محمد عزت صفوت ابو العطا</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mohammad Amr Mohammad Ezzat Safwat</x:t>
-  </x:si>
-  <x:si>
     <x:t>1220021</x:t>
   </x:si>
   <x:si>
@@ -208,15 +163,6 @@
   </x:si>
   <x:si>
     <x:t>Mohamed Magdy Fouad Abdul Elaty</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4230174</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمد منير عبدالحميد كمال</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mohamed Monir</x:t>
   </x:si>
   <x:si>
     <x:t>4230175</x:t>
@@ -386,7 +332,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E28" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E22" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -686,7 +632,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T28"/>
+  <x:dimension ref="A1:T22"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -809,7 +755,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45907.5904606481</x:v>
+        <x:v>45907.5876866088</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -841,7 +787,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45907.5876866088</x:v>
+        <x:v>45927.4193980324</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -873,7 +819,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45909.4592127315</x:v>
+        <x:v>45907.4219476852</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -905,7 +851,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45907.4219476852</x:v>
+        <x:v>45906.6643488426</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -937,7 +883,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45906.6643488426</x:v>
+        <x:v>45907.4332514236</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -965,11 +911,9 @@
       <x:c r="C8" s="2" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="D8" s="2" t="s">
-        <x:v>25</x:v>
-      </x:c>
+      <x:c r="D8" s="2" t="s"/>
       <x:c r="E8" s="3">
-        <x:v>45907.4332514236</x:v>
+        <x:v>45906.4147694444</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -992,14 +936,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B9" s="2" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C9" s="2" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="C9" s="2" t="s">
+      <x:c r="D9" s="2" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="D9" s="2" t="s"/>
       <x:c r="E9" s="3">
-        <x:v>45906.4147694444</x:v>
+        <x:v>45907.4213069792</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1031,7 +977,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.4213069792</x:v>
+        <x:v>45927.4167707176</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1063,7 +1009,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45906.6641871528</x:v>
+        <x:v>45912.8747353009</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1095,7 +1041,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45912.8747353009</x:v>
+        <x:v>45907.4150424769</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1127,7 +1073,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.4150424769</x:v>
+        <x:v>45907.429381331</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1159,7 +1105,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.429381331</x:v>
+        <x:v>45909.4151279745</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1191,7 +1137,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45909.4151279745</x:v>
+        <x:v>45909.4258327199</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1223,7 +1169,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.4195290509</x:v>
+        <x:v>45907.456287581</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1255,7 +1201,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45909.4258327199</x:v>
+        <x:v>45909.733365625</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1287,7 +1233,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45909.7206131597</x:v>
+        <x:v>45907.538403588</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1319,7 +1265,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45909.8583090278</x:v>
+        <x:v>45907.4189416667</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1351,7 +1297,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45912.9797975347</x:v>
+        <x:v>45927.4173986111</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1383,7 +1329,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.456287581</x:v>
+        <x:v>45907.4148150463</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1415,7 +1361,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.6021284722</x:v>
+        <x:v>45909.4148714931</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1432,198 +1378,6 @@
       <x:c r="R22" s="2" t="s"/>
       <x:c r="S22" s="2" t="s"/>
       <x:c r="T22" s="2" t="s"/>
-    </x:row>
-    <x:row r="23" spans="1:20">
-      <x:c r="A23" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B23" s="2" t="s">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="C23" s="2" t="s">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="D23" s="2" t="s">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="E23" s="3">
-        <x:v>45909.733365625</x:v>
-      </x:c>
-      <x:c r="F23" s="2" t="s"/>
-      <x:c r="G23" s="2" t="s"/>
-      <x:c r="H23" s="2" t="s"/>
-      <x:c r="I23" s="2" t="s"/>
-      <x:c r="J23" s="2" t="s"/>
-      <x:c r="K23" s="2" t="s"/>
-      <x:c r="L23" s="2" t="s"/>
-      <x:c r="M23" s="2" t="s"/>
-      <x:c r="N23" s="2" t="s"/>
-      <x:c r="O23" s="2" t="s"/>
-      <x:c r="P23" s="2" t="s"/>
-      <x:c r="Q23" s="2" t="s"/>
-      <x:c r="R23" s="2" t="s"/>
-      <x:c r="S23" s="2" t="s"/>
-      <x:c r="T23" s="2" t="s"/>
-    </x:row>
-    <x:row r="24" spans="1:20">
-      <x:c r="A24" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B24" s="2" t="s">
-        <x:v>70</x:v>
-      </x:c>
-      <x:c r="C24" s="2" t="s">
-        <x:v>71</x:v>
-      </x:c>
-      <x:c r="D24" s="2" t="s">
-        <x:v>72</x:v>
-      </x:c>
-      <x:c r="E24" s="3">
-        <x:v>45907.538403588</x:v>
-      </x:c>
-      <x:c r="F24" s="2" t="s"/>
-      <x:c r="G24" s="2" t="s"/>
-      <x:c r="H24" s="2" t="s"/>
-      <x:c r="I24" s="2" t="s"/>
-      <x:c r="J24" s="2" t="s"/>
-      <x:c r="K24" s="2" t="s"/>
-      <x:c r="L24" s="2" t="s"/>
-      <x:c r="M24" s="2" t="s"/>
-      <x:c r="N24" s="2" t="s"/>
-      <x:c r="O24" s="2" t="s"/>
-      <x:c r="P24" s="2" t="s"/>
-      <x:c r="Q24" s="2" t="s"/>
-      <x:c r="R24" s="2" t="s"/>
-      <x:c r="S24" s="2" t="s"/>
-      <x:c r="T24" s="2" t="s"/>
-    </x:row>
-    <x:row r="25" spans="1:20">
-      <x:c r="A25" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B25" s="2" t="s">
-        <x:v>73</x:v>
-      </x:c>
-      <x:c r="C25" s="2" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="D25" s="2" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="E25" s="3">
-        <x:v>45907.4189416667</x:v>
-      </x:c>
-      <x:c r="F25" s="2" t="s"/>
-      <x:c r="G25" s="2" t="s"/>
-      <x:c r="H25" s="2" t="s"/>
-      <x:c r="I25" s="2" t="s"/>
-      <x:c r="J25" s="2" t="s"/>
-      <x:c r="K25" s="2" t="s"/>
-      <x:c r="L25" s="2" t="s"/>
-      <x:c r="M25" s="2" t="s"/>
-      <x:c r="N25" s="2" t="s"/>
-      <x:c r="O25" s="2" t="s"/>
-      <x:c r="P25" s="2" t="s"/>
-      <x:c r="Q25" s="2" t="s"/>
-      <x:c r="R25" s="2" t="s"/>
-      <x:c r="S25" s="2" t="s"/>
-      <x:c r="T25" s="2" t="s"/>
-    </x:row>
-    <x:row r="26" spans="1:20">
-      <x:c r="A26" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B26" s="2" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="C26" s="2" t="s">
-        <x:v>77</x:v>
-      </x:c>
-      <x:c r="D26" s="2" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="E26" s="3">
-        <x:v>45913.8533231134</x:v>
-      </x:c>
-      <x:c r="F26" s="2" t="s"/>
-      <x:c r="G26" s="2" t="s"/>
-      <x:c r="H26" s="2" t="s"/>
-      <x:c r="I26" s="2" t="s"/>
-      <x:c r="J26" s="2" t="s"/>
-      <x:c r="K26" s="2" t="s"/>
-      <x:c r="L26" s="2" t="s"/>
-      <x:c r="M26" s="2" t="s"/>
-      <x:c r="N26" s="2" t="s"/>
-      <x:c r="O26" s="2" t="s"/>
-      <x:c r="P26" s="2" t="s"/>
-      <x:c r="Q26" s="2" t="s"/>
-      <x:c r="R26" s="2" t="s"/>
-      <x:c r="S26" s="2" t="s"/>
-      <x:c r="T26" s="2" t="s"/>
-    </x:row>
-    <x:row r="27" spans="1:20">
-      <x:c r="A27" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B27" s="2" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="C27" s="2" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="D27" s="2" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="E27" s="3">
-        <x:v>45907.4148150463</x:v>
-      </x:c>
-      <x:c r="F27" s="2" t="s"/>
-      <x:c r="G27" s="2" t="s"/>
-      <x:c r="H27" s="2" t="s"/>
-      <x:c r="I27" s="2" t="s"/>
-      <x:c r="J27" s="2" t="s"/>
-      <x:c r="K27" s="2" t="s"/>
-      <x:c r="L27" s="2" t="s"/>
-      <x:c r="M27" s="2" t="s"/>
-      <x:c r="N27" s="2" t="s"/>
-      <x:c r="O27" s="2" t="s"/>
-      <x:c r="P27" s="2" t="s"/>
-      <x:c r="Q27" s="2" t="s"/>
-      <x:c r="R27" s="2" t="s"/>
-      <x:c r="S27" s="2" t="s"/>
-      <x:c r="T27" s="2" t="s"/>
-    </x:row>
-    <x:row r="28" spans="1:20">
-      <x:c r="A28" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B28" s="2" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="C28" s="2" t="s">
-        <x:v>83</x:v>
-      </x:c>
-      <x:c r="D28" s="2" t="s">
-        <x:v>84</x:v>
-      </x:c>
-      <x:c r="E28" s="3">
-        <x:v>45909.4148714931</x:v>
-      </x:c>
-      <x:c r="F28" s="2" t="s"/>
-      <x:c r="G28" s="2" t="s"/>
-      <x:c r="H28" s="2" t="s"/>
-      <x:c r="I28" s="2" t="s"/>
-      <x:c r="J28" s="2" t="s"/>
-      <x:c r="K28" s="2" t="s"/>
-      <x:c r="L28" s="2" t="s"/>
-      <x:c r="M28" s="2" t="s"/>
-      <x:c r="N28" s="2" t="s"/>
-      <x:c r="O28" s="2" t="s"/>
-      <x:c r="P28" s="2" t="s"/>
-      <x:c r="Q28" s="2" t="s"/>
-      <x:c r="R28" s="2" t="s"/>
-      <x:c r="S28" s="2" t="s"/>
-      <x:c r="T28" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS306_Tutorial-35319.xlsx
+++ b/downloaded_files/EECS306_Tutorial-35319.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -136,15 +136,6 @@
   </x:si>
   <x:si>
     <x:t>Clara Hany Fawzy Swares</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230086</x:t>
-  </x:si>
-  <x:si>
-    <x:t>لجين خالد رمضان محمود</x:t>
-  </x:si>
-  <x:si>
-    <x:t>lojain khaled ramadan mahmoud</x:t>
   </x:si>
   <x:si>
     <x:t>1230302</x:t>
@@ -332,7 +323,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E22" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E21" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -632,7 +623,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T22"/>
+  <x:dimension ref="A1:T21"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1105,7 +1096,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45909.4151279745</x:v>
+        <x:v>45909.4258327199</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1137,7 +1128,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45909.4258327199</x:v>
+        <x:v>45907.456287581</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1169,7 +1160,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.456287581</x:v>
+        <x:v>45909.733365625</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1201,7 +1192,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45909.733365625</x:v>
+        <x:v>45907.538403588</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1233,7 +1224,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.538403588</x:v>
+        <x:v>45907.4189416667</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1265,7 +1256,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.4189416667</x:v>
+        <x:v>45927.4173986111</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1297,7 +1288,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45927.4173986111</x:v>
+        <x:v>45907.4148150463</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1329,7 +1320,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.4148150463</x:v>
+        <x:v>45909.4148714931</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1346,38 +1337,6 @@
       <x:c r="R21" s="2" t="s"/>
       <x:c r="S21" s="2" t="s"/>
       <x:c r="T21" s="2" t="s"/>
-    </x:row>
-    <x:row r="22" spans="1:20">
-      <x:c r="A22" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B22" s="2" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="C22" s="2" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="D22" s="2" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="E22" s="3">
-        <x:v>45909.4148714931</x:v>
-      </x:c>
-      <x:c r="F22" s="2" t="s"/>
-      <x:c r="G22" s="2" t="s"/>
-      <x:c r="H22" s="2" t="s"/>
-      <x:c r="I22" s="2" t="s"/>
-      <x:c r="J22" s="2" t="s"/>
-      <x:c r="K22" s="2" t="s"/>
-      <x:c r="L22" s="2" t="s"/>
-      <x:c r="M22" s="2" t="s"/>
-      <x:c r="N22" s="2" t="s"/>
-      <x:c r="O22" s="2" t="s"/>
-      <x:c r="P22" s="2" t="s"/>
-      <x:c r="Q22" s="2" t="s"/>
-      <x:c r="R22" s="2" t="s"/>
-      <x:c r="S22" s="2" t="s"/>
-      <x:c r="T22" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS306_Tutorial-35319.xlsx
+++ b/downloaded_files/EECS306_Tutorial-35319.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -76,15 +76,6 @@
   </x:si>
   <x:si>
     <x:t>Razan Megahed Raghib Al/Besra</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1220095</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ساره احمد عبد الفتاح محمد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>sara ahmed abdelfattah mohamed</x:t>
   </x:si>
   <x:si>
     <x:t>4220126</x:t>
@@ -323,7 +314,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E21" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E20" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -623,7 +614,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T21"/>
+  <x:dimension ref="A1:T20"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -870,11 +861,9 @@
       <x:c r="C7" s="2" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="D7" s="2" t="s">
-        <x:v>22</x:v>
-      </x:c>
+      <x:c r="D7" s="2" t="s"/>
       <x:c r="E7" s="3">
-        <x:v>45907.4332514236</x:v>
+        <x:v>45906.4147694444</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -897,14 +886,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B8" s="2" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="C8" s="2" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="C8" s="2" t="s">
+      <x:c r="D8" s="2" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="D8" s="2" t="s"/>
       <x:c r="E8" s="3">
-        <x:v>45906.4147694444</x:v>
+        <x:v>45907.4213069792</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -936,7 +927,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.4213069792</x:v>
+        <x:v>45927.4167707176</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -968,7 +959,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45927.4167707176</x:v>
+        <x:v>45912.8747353009</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1000,7 +991,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45912.8747353009</x:v>
+        <x:v>45907.4150424769</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1032,7 +1023,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.4150424769</x:v>
+        <x:v>45907.429381331</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1064,7 +1055,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.429381331</x:v>
+        <x:v>45909.4258327199</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1096,7 +1087,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45909.4258327199</x:v>
+        <x:v>45907.456287581</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1128,7 +1119,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.456287581</x:v>
+        <x:v>45909.733365625</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1160,7 +1151,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45909.733365625</x:v>
+        <x:v>45907.538403588</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1192,7 +1183,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.538403588</x:v>
+        <x:v>45907.4189416667</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1224,7 +1215,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.4189416667</x:v>
+        <x:v>45927.4173986111</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1256,7 +1247,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45927.4173986111</x:v>
+        <x:v>45907.4148150463</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1288,7 +1279,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.4148150463</x:v>
+        <x:v>45909.4148714931</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1305,38 +1296,6 @@
       <x:c r="R20" s="2" t="s"/>
       <x:c r="S20" s="2" t="s"/>
       <x:c r="T20" s="2" t="s"/>
-    </x:row>
-    <x:row r="21" spans="1:20">
-      <x:c r="A21" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B21" s="2" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="C21" s="2" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="D21" s="2" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="E21" s="3">
-        <x:v>45909.4148714931</x:v>
-      </x:c>
-      <x:c r="F21" s="2" t="s"/>
-      <x:c r="G21" s="2" t="s"/>
-      <x:c r="H21" s="2" t="s"/>
-      <x:c r="I21" s="2" t="s"/>
-      <x:c r="J21" s="2" t="s"/>
-      <x:c r="K21" s="2" t="s"/>
-      <x:c r="L21" s="2" t="s"/>
-      <x:c r="M21" s="2" t="s"/>
-      <x:c r="N21" s="2" t="s"/>
-      <x:c r="O21" s="2" t="s"/>
-      <x:c r="P21" s="2" t="s"/>
-      <x:c r="Q21" s="2" t="s"/>
-      <x:c r="R21" s="2" t="s"/>
-      <x:c r="S21" s="2" t="s"/>
-      <x:c r="T21" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/EECS306_Tutorial-35319.xlsx
+++ b/downloaded_files/EECS306_Tutorial-35319.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -49,6 +49,15 @@
   </x:si>
   <x:si>
     <x:t>Belal Mohamed Elseddik Ali</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1220232</x:t>
+  </x:si>
+  <x:si>
+    <x:t>جنى أحمد مصطفى أحمد مريدن</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jana Ahmed Mostafa Ahmed Meriden</x:t>
   </x:si>
   <x:si>
     <x:t>1220233</x:t>
@@ -314,7 +323,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E20" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E21" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -614,7 +623,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T20"/>
+  <x:dimension ref="A1:T21"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -769,7 +778,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45927.4193980324</x:v>
+        <x:v>45934.8603108796</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -801,7 +810,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45907.4219476852</x:v>
+        <x:v>45927.4193980324</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -833,7 +842,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45906.6643488426</x:v>
+        <x:v>45907.4219476852</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -861,9 +870,11 @@
       <x:c r="C7" s="2" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="D7" s="2" t="s"/>
+      <x:c r="D7" s="2" t="s">
+        <x:v>22</x:v>
+      </x:c>
       <x:c r="E7" s="3">
-        <x:v>45906.4147694444</x:v>
+        <x:v>45906.6643488426</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -886,16 +897,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B8" s="2" t="s">
-        <x:v>22</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C8" s="2" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="D8" s="2" t="s">
         <x:v>24</x:v>
       </x:c>
+      <x:c r="D8" s="2" t="s"/>
       <x:c r="E8" s="3">
-        <x:v>45907.4213069792</x:v>
+        <x:v>45906.4147694444</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -927,7 +936,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45927.4167707176</x:v>
+        <x:v>45907.4213069792</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -959,7 +968,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45912.8747353009</x:v>
+        <x:v>45927.4167707176</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -991,7 +1000,7 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.4150424769</x:v>
+        <x:v>45912.8747353009</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1023,7 +1032,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.429381331</x:v>
+        <x:v>45907.4150424769</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1055,7 +1064,7 @@
         <x:v>39</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45909.4258327199</x:v>
+        <x:v>45907.429381331</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1087,7 +1096,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.456287581</x:v>
+        <x:v>45909.4258327199</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1119,7 +1128,7 @@
         <x:v>45</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45909.733365625</x:v>
+        <x:v>45907.456287581</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1151,7 +1160,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.538403588</x:v>
+        <x:v>45909.733365625</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1183,7 +1192,7 @@
         <x:v>51</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.4189416667</x:v>
+        <x:v>45907.538403588</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1215,7 +1224,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45927.4173986111</x:v>
+        <x:v>45907.4189416667</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1247,7 +1256,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.4148150463</x:v>
+        <x:v>45927.4173986111</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1279,7 +1288,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45909.4148714931</x:v>
+        <x:v>45907.4148150463</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1296,6 +1305,38 @@
       <x:c r="R20" s="2" t="s"/>
       <x:c r="S20" s="2" t="s"/>
       <x:c r="T20" s="2" t="s"/>
+    </x:row>
+    <x:row r="21" spans="1:20">
+      <x:c r="A21" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B21" s="2" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="C21" s="2" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="D21" s="2" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="E21" s="3">
+        <x:v>45909.4148714931</x:v>
+      </x:c>
+      <x:c r="F21" s="2" t="s"/>
+      <x:c r="G21" s="2" t="s"/>
+      <x:c r="H21" s="2" t="s"/>
+      <x:c r="I21" s="2" t="s"/>
+      <x:c r="J21" s="2" t="s"/>
+      <x:c r="K21" s="2" t="s"/>
+      <x:c r="L21" s="2" t="s"/>
+      <x:c r="M21" s="2" t="s"/>
+      <x:c r="N21" s="2" t="s"/>
+      <x:c r="O21" s="2" t="s"/>
+      <x:c r="P21" s="2" t="s"/>
+      <x:c r="Q21" s="2" t="s"/>
+      <x:c r="R21" s="2" t="s"/>
+      <x:c r="S21" s="2" t="s"/>
+      <x:c r="T21" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
